--- a/excel_files/Order.toship.20260116_20260117 (1).xlsx
+++ b/excel_files/Order.toship.20260116_20260117 (1).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1013">
   <si>
     <t>Order ID</t>
   </si>
@@ -245,12 +245,12 @@
     <t>N</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>bunzobotenglagrama</t>
   </si>
   <si>
@@ -878,12 +878,12 @@
     <t>Bellevine Pure Malunggay Moringa Powder Herbal Supplement – Natural Superfood, 50g Pack Organic</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>becalabado</t>
   </si>
   <si>
@@ -1817,33 +1817,12 @@
     <t>2202</t>
   </si>
   <si>
-    <t>260117925EN6R7</t>
-  </si>
-  <si>
-    <t>2026-01-17 09:12</t>
-  </si>
-  <si>
-    <t>2026-01-17 09:23</t>
-  </si>
-  <si>
-    <t>arnoldzoldyck619</t>
-  </si>
-  <si>
-    <t>Susco Banawa, Cleveland Street, Guadalupe, Guadalupe, Cebu City, Visayas, Cebu, 6000</t>
-  </si>
-  <si>
-    <t>Guadalupe</t>
-  </si>
-  <si>
-    <t>Cebu City</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
     <t>26011792MUNY4M</t>
   </si>
   <si>
+    <t>PH2694110673666</t>
+  </si>
+  <si>
     <t>2026-01-17 09:21</t>
   </si>
   <si>
@@ -1872,6 +1851,1203 @@
   </si>
   <si>
     <t>3018</t>
+  </si>
+  <si>
+    <t>260117935U8PEK</t>
+  </si>
+  <si>
+    <t>P2416GMPCA6AB</t>
+  </si>
+  <si>
+    <t>2026-01-17 09:31</t>
+  </si>
+  <si>
+    <t>2026-01-17 09:44</t>
+  </si>
+  <si>
+    <t>leonardobrondial</t>
+  </si>
+  <si>
+    <t>L******l</t>
+  </si>
+  <si>
+    <t>******23</t>
+  </si>
+  <si>
+    <t>Zone-4, Cristo Rey, Cristo Rey, Iriga City, South Luzon, Camarines Sur, 4431</t>
+  </si>
+  <si>
+    <t>Cristo Rey</t>
+  </si>
+  <si>
+    <t>Iriga City</t>
+  </si>
+  <si>
+    <t>Camarines Sur</t>
+  </si>
+  <si>
+    <t>4431</t>
+  </si>
+  <si>
+    <t>260117942V5YTB</t>
+  </si>
+  <si>
+    <t>PH2636485932900</t>
+  </si>
+  <si>
+    <t>2026-01-17 09:47</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:00</t>
+  </si>
+  <si>
+    <t>marycrisruben</t>
+  </si>
+  <si>
+    <t>c**s</t>
+  </si>
+  <si>
+    <t>Dencios Kamayan G/F Main Sm City Davao Ecoland Davao City, Bucana, Davao City, Mindanao, Davao Del Sur, 8000</t>
+  </si>
+  <si>
+    <t>Bucana</t>
+  </si>
+  <si>
+    <t>26011794CNXW08</t>
+  </si>
+  <si>
+    <t>790295284987</t>
+  </si>
+  <si>
+    <t>Standard Local-J&amp;T Express</t>
+  </si>
+  <si>
+    <t>2026-01-17 09:52</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:03</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>venusjoynot</t>
+  </si>
+  <si>
+    <t>J******i</t>
+  </si>
+  <si>
+    <t>Zone 7 Bulua Cagayan de Oro city, Bulua, Cagayan De Oro City, Mindanao, Misamis Oriental, 9000</t>
+  </si>
+  <si>
+    <t>Bulua</t>
+  </si>
+  <si>
+    <t>26011794D9XF0K</t>
+  </si>
+  <si>
+    <t>PH263538969917M</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:06</t>
+  </si>
+  <si>
+    <t>A+PCC</t>
+  </si>
+  <si>
+    <t>AshigoPlus Mangosteen Malunggay Ashitaba Purple Corn Coffee l Antioxidant l 100% Organic FDA | 120g</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>angelrusticmornin</t>
+  </si>
+  <si>
+    <t>42 London Street,  Greenland Village Ph .1Nangka, Nangka, Marikina City, Metro Manila, Metro Manila, 1808</t>
+  </si>
+  <si>
+    <t>Nangka</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>26011795K1A247</t>
+  </si>
+  <si>
+    <t>PH263968560505L</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:14</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:24</t>
+  </si>
+  <si>
+    <t>BVInsP</t>
+  </si>
+  <si>
+    <t>Bellevine Insulin Plant Capsule Herbal Food Supplement 100 Capsules 500mg</t>
+  </si>
+  <si>
+    <t>25yp1ub5ar</t>
+  </si>
+  <si>
+    <t>J******r</t>
+  </si>
+  <si>
+    <t>******18</t>
+  </si>
+  <si>
+    <t>5300, Francisco (San Francisco), Tagaytay City, South Luzon, Cavite, 4120</t>
+  </si>
+  <si>
+    <t>Francisco (San Francisco)</t>
+  </si>
+  <si>
+    <t>Tagaytay City</t>
+  </si>
+  <si>
+    <t>4120</t>
+  </si>
+  <si>
+    <t>26011795WJVTAU</t>
+  </si>
+  <si>
+    <t>PH2649094981727</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:19</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:30</t>
+  </si>
+  <si>
+    <t>adelinanajarrolungtad</t>
+  </si>
+  <si>
+    <t>A******d</t>
+  </si>
+  <si>
+    <t>******31</t>
+  </si>
+  <si>
+    <t>Prk Acosta 1C Atbang Incubator Maker, Apokon, Tagum City, Mindanao, Davao Del Norte, 8100</t>
+  </si>
+  <si>
+    <t>Apokon</t>
+  </si>
+  <si>
+    <t>Tagum City</t>
+  </si>
+  <si>
+    <t>Davao Del Norte</t>
+  </si>
+  <si>
+    <t>8100</t>
+  </si>
+  <si>
+    <t>2601179610H1HR</t>
+  </si>
+  <si>
+    <t>PH2687852850015</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:21</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:34</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>rahmad.agama</t>
+  </si>
+  <si>
+    <t>******27</t>
+  </si>
+  <si>
+    <t>Purok 3, Hijo, Hijo, Maco, Mindanao, Compostela Valley, 8806</t>
+  </si>
+  <si>
+    <t>Hijo</t>
+  </si>
+  <si>
+    <t>Maco</t>
+  </si>
+  <si>
+    <t>8806</t>
+  </si>
+  <si>
+    <t>2601179737C9FN</t>
+  </si>
+  <si>
+    <t>P8116GMPCA3AF</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:41</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:52</t>
+  </si>
+  <si>
+    <t>romyliemagdalaga986</t>
+  </si>
+  <si>
+    <t>******69</t>
+  </si>
+  <si>
+    <t>Brgy masipag Valencia st Whitehouse parola Puerto princesa city palawan, Masipag, Puerto Princesa City, South Luzon, Palawan, 5300</t>
+  </si>
+  <si>
+    <t>Masipag</t>
+  </si>
+  <si>
+    <t>Puerto Princesa City</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>26011797421T8R</t>
+  </si>
+  <si>
+    <t>PH262490954229Y</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>vg3o2edmff</t>
+  </si>
+  <si>
+    <t>V******r</t>
+  </si>
+  <si>
+    <t>Three &amp; One Resto Bar, Purok Ipil, Ipil, Ipil, Bongabong, South Luzon, Oriental Mindoro, 5211</t>
+  </si>
+  <si>
+    <t>Ipil</t>
+  </si>
+  <si>
+    <t>Bongabong</t>
+  </si>
+  <si>
+    <t>Oriental Mindoro</t>
+  </si>
+  <si>
+    <t>5211</t>
+  </si>
+  <si>
+    <t>26011797HM1194</t>
+  </si>
+  <si>
+    <t>PH2627893565481</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:49</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:01</t>
+  </si>
+  <si>
+    <t>0.090</t>
+  </si>
+  <si>
+    <t>lormario</t>
+  </si>
+  <si>
+    <t>L******y</t>
+  </si>
+  <si>
+    <t>192,Purok Rose, Banganan, Aritao, North Luzon, Nueva Vizcaya, 3704</t>
+  </si>
+  <si>
+    <t>Banganan</t>
+  </si>
+  <si>
+    <t>Aritao</t>
+  </si>
+  <si>
+    <t>Nueva Vizcaya</t>
+  </si>
+  <si>
+    <t>3704</t>
+  </si>
+  <si>
+    <t>26011797RYKGTK</t>
+  </si>
+  <si>
+    <t>PH2628872685912</t>
+  </si>
+  <si>
+    <t>2026-01-17 10:53</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:04</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>maryjoypecenio219</t>
+  </si>
+  <si>
+    <t>Sitio Boayahon,Balay ni Baygo Merillo, Dampigan, Dolores, Visayas, Eastern Samar, 6110</t>
+  </si>
+  <si>
+    <t>Dampigan</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Eastern Samar</t>
+  </si>
+  <si>
+    <t>6110</t>
+  </si>
+  <si>
+    <t>260117986BQTNE</t>
+  </si>
+  <si>
+    <t>PH269046765456Z</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:00</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:11</t>
+  </si>
+  <si>
+    <t>carsten17</t>
+  </si>
+  <si>
+    <t>J******a</t>
+  </si>
+  <si>
+    <t>******73</t>
+  </si>
+  <si>
+    <t>Saturn Street Purok 7 Barangay, New Cabalan, Olongapo City, North Luzon, Zambales, 2200</t>
+  </si>
+  <si>
+    <t>New Cabalan</t>
+  </si>
+  <si>
+    <t>260117986GJEGW</t>
+  </si>
+  <si>
+    <t>PH2677065828660</t>
+  </si>
+  <si>
+    <t>BVGuy</t>
+  </si>
+  <si>
+    <t>Bellevine Organic Guyabano Herbal Capsules – 100s | Natural Supplement | Immune &amp; Wellness Support</t>
+  </si>
+  <si>
+    <t>kylacesario</t>
+  </si>
+  <si>
+    <t>K******o</t>
+  </si>
+  <si>
+    <t>******68</t>
+  </si>
+  <si>
+    <t>26 jailside west rembo makati city, West Rembo, Makati City, Metro Manila, Metro Manila, 1215</t>
+  </si>
+  <si>
+    <t>West Rembo</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>26011799PC30KH</t>
+  </si>
+  <si>
+    <t>PH264428829395Z</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:27</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:38</t>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t>cheryllpineda609</t>
+  </si>
+  <si>
+    <t>C******n</t>
+  </si>
+  <si>
+    <t>******16</t>
+  </si>
+  <si>
+    <t>Camella Sorrento, Block 20 Lot 16 Passera Street, Phase 1, Panipuan, Mexico, North Luzon, Pampanga, 2021</t>
+  </si>
+  <si>
+    <t>Panipuan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>SNLagundiCaps</t>
+  </si>
+  <si>
+    <t>SuperNutrition Lagundi (Vitex Negundo) Food Supplement - 100 Capsules for Cough, Asthma, and Lung</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2601179AJXNMDP</t>
+  </si>
+  <si>
+    <t>PH260194858847X</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:43</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:54</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>mjbauto</t>
+  </si>
+  <si>
+    <t>A******r</t>
+  </si>
+  <si>
+    <t>Purok 2 (boundary), Cruz Roja, Cabanatuan City, North Luzon, Nueva Ecija, 3100</t>
+  </si>
+  <si>
+    <t>Cruz Roja</t>
+  </si>
+  <si>
+    <t>Cabanatuan City</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angelina B. Salvador</t>
+  </si>
+  <si>
+    <t>2601179AMK3V7G</t>
+  </si>
+  <si>
+    <t>PH263274459521U</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:44</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:57</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>enricoeliazo</t>
+  </si>
+  <si>
+    <t>******80</t>
+  </si>
+  <si>
+    <t>64, Purok 10, South Daan Hari, South Daan Hari, Taguig City, Metro Manila, Metro Manila, 1631</t>
+  </si>
+  <si>
+    <t>South Daan Hari</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>2601179ASWU28X</t>
+  </si>
+  <si>
+    <t>PH266266279824S</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:47</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:00</t>
+  </si>
+  <si>
+    <t>g6uu9araox</t>
+  </si>
+  <si>
+    <t>******11</t>
+  </si>
+  <si>
+    <t>Dadays agrivet dauin branch, poblacion 1 beside Crispy king, Poblacion I, Dauin, Visayas, Negros Oriental, 6217</t>
+  </si>
+  <si>
+    <t>Poblacion I</t>
+  </si>
+  <si>
+    <t>Dauin</t>
+  </si>
+  <si>
+    <t>Negros Oriental</t>
+  </si>
+  <si>
+    <t>6217</t>
+  </si>
+  <si>
+    <t>2601179ATTEXST</t>
+  </si>
+  <si>
+    <t>PH2600594970620</t>
+  </si>
+  <si>
+    <t>2026-01-17 11:48</t>
+  </si>
+  <si>
+    <t>robertalarcon426</t>
+  </si>
+  <si>
+    <t>R******i</t>
+  </si>
+  <si>
+    <t>******70</t>
+  </si>
+  <si>
+    <t>3 Purok, Hacienda, Pandacaqui, Pandacaqui, Mexico, North Luzon, Pampanga, 2009</t>
+  </si>
+  <si>
+    <t>Pandacaqui</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2601179C37MQA9</t>
+  </si>
+  <si>
+    <t>PH267081991040C</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:10</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:21</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>allens.variety.store</t>
+  </si>
+  <si>
+    <t>A***n</t>
+  </si>
+  <si>
+    <t>Heritage Homes, B528 L43 Orchids Street, Ph5B, Loma De Gato, Loma De Gato, Marilao, North Luzon, Bulacan, 3019</t>
+  </si>
+  <si>
+    <t>Loma De Gato</t>
+  </si>
+  <si>
+    <t>Marilao</t>
+  </si>
+  <si>
+    <t>3019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allen</t>
+  </si>
+  <si>
+    <t>2601179CXAH744</t>
+  </si>
+  <si>
+    <t>P6114GMSAYCAA</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:26</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:37</t>
+  </si>
+  <si>
+    <t>mylyncuevas</t>
+  </si>
+  <si>
+    <t>2425 C Zapanta St. Arellano Ave. Manila. (Tambunting), Barangay 745, Santa Ana, Metro Manila, Metro Manila, 1004</t>
+  </si>
+  <si>
+    <t>Barangay 745</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>2601179D39UQT4</t>
+  </si>
+  <si>
+    <t>790296783239</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:28</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:40</t>
+  </si>
+  <si>
+    <t>jillamor80</t>
+  </si>
+  <si>
+    <t>Purok1B Brgy. Kauran, Ampatuan, Maguinanao, Talisawa, Datu Abdullah Sangki, Mindanao, Maguindanao, 9609</t>
+  </si>
+  <si>
+    <t>Talisawa</t>
+  </si>
+  <si>
+    <t>Datu Abdullah Sangki</t>
+  </si>
+  <si>
+    <t>Maguindanao</t>
+  </si>
+  <si>
+    <t>9609</t>
+  </si>
+  <si>
+    <t>2601179DF69S0X</t>
+  </si>
+  <si>
+    <t>P2106GMSAYGAC</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:35</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:46</t>
+  </si>
+  <si>
+    <t>graceypasay</t>
+  </si>
+  <si>
+    <t>G******y</t>
+  </si>
+  <si>
+    <t>******83</t>
+  </si>
+  <si>
+    <t>147 National Road, Calahan, Calahan, Cardona, South Luzon, Rizal, 1950</t>
+  </si>
+  <si>
+    <t>Calahan</t>
+  </si>
+  <si>
+    <t>Cardona</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>2601179DH8362N</t>
+  </si>
+  <si>
+    <t>PH264628710336V</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:36</t>
+  </si>
+  <si>
+    <t>BVSpirulina</t>
+  </si>
+  <si>
+    <t>Bellevine Spirulina Capsule 500mg – 100 Capsules | Superfood Supplement | FDA Approved Natural Detox</t>
+  </si>
+  <si>
+    <t>carolynacob</t>
+  </si>
+  <si>
+    <t>purok 5 valeros st santo domingo luna isabela, Santo Domingo, Luna, North Luzon, Isabela, 3304</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Isabela</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>2601179DNMBXF1</t>
+  </si>
+  <si>
+    <t>PH261161409714Y</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:38</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:49</t>
+  </si>
+  <si>
+    <t>joanafondevilla</t>
+  </si>
+  <si>
+    <t>******74</t>
+  </si>
+  <si>
+    <t>Phase 3 Package 3 Block 79 Lot 5, Barangay 176, Caloocan City, Metro Manila, Metro Manila, 1428</t>
+  </si>
+  <si>
+    <t>Barangay 176</t>
+  </si>
+  <si>
+    <t>Caloocan City</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>2601179E2N44QG</t>
+  </si>
+  <si>
+    <t>PH2616106920210</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:45</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>paulinacrafts</t>
+  </si>
+  <si>
+    <t>P******n</t>
+  </si>
+  <si>
+    <t>******38</t>
+  </si>
+  <si>
+    <t>131 Mayor Posadas Avenue, Doña Rosario Heights, Sucat, Muntinlupa City, Metro Manila, Metro Manila, 1781</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>2601179E3RC6FT</t>
+  </si>
+  <si>
+    <t>PH265503856736W</t>
+  </si>
+  <si>
+    <t>2026-01-17 12:58</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>charryblatang941</t>
+  </si>
+  <si>
+    <t>C******g</t>
+  </si>
+  <si>
+    <t>Purok Mabuhay, Daladap, Esperanza, Mindanao, Sultan Kudarat, 9806</t>
+  </si>
+  <si>
+    <t>Daladap</t>
+  </si>
+  <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
+    <t>Sultan Kudarat</t>
+  </si>
+  <si>
+    <t>9806</t>
+  </si>
+  <si>
+    <t>2601179G6714Q0</t>
+  </si>
+  <si>
+    <t>PH265404936258Q</t>
+  </si>
+  <si>
+    <t>2026-01-17 13:23</t>
+  </si>
+  <si>
+    <t>2026-01-17 13:35</t>
+  </si>
+  <si>
+    <t>3zu64dcpb2</t>
+  </si>
+  <si>
+    <t>******34</t>
+  </si>
+  <si>
+    <t>Nazareth Compoumd, Molino Iii, Molino Iii, Bacoor, South Luzon, Cavite, 4102</t>
+  </si>
+  <si>
+    <t>Molino Iii</t>
+  </si>
+  <si>
+    <t>Bacoor</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>2601179G8272CD</t>
+  </si>
+  <si>
+    <t>PH264949732364J</t>
+  </si>
+  <si>
+    <t>2026-01-17 13:24</t>
+  </si>
+  <si>
+    <t>raindenielledoromal</t>
+  </si>
+  <si>
+    <t>D******N</t>
+  </si>
+  <si>
+    <t>******06</t>
+  </si>
+  <si>
+    <t>Guinsay Elementary School, Sitio Sambag, Guinsay, Guinsay, Danao City, Visayas, Cebu, 6004</t>
+  </si>
+  <si>
+    <t>Guinsay</t>
+  </si>
+  <si>
+    <t>Danao City</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>2601179HUK366R</t>
+  </si>
+  <si>
+    <t>PH262650940445M</t>
+  </si>
+  <si>
+    <t>2026-01-19 21:00</t>
+  </si>
+  <si>
+    <t>2026-01-17 13:53</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:06</t>
+  </si>
+  <si>
+    <t>verlynvillanuevareyes</t>
+  </si>
+  <si>
+    <t>******42</t>
+  </si>
+  <si>
+    <t>Hanggan.dila.bay.laguna.0952, Dila, Bay, South Luzon, Laguna, 0952</t>
+  </si>
+  <si>
+    <t>Dila</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>0952</t>
+  </si>
+  <si>
+    <t>2601179J7VXDHG</t>
+  </si>
+  <si>
+    <t>790298715327</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:01</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:12</t>
+  </si>
+  <si>
+    <t>johnkellytitan</t>
+  </si>
+  <si>
+    <t>J******.</t>
+  </si>
+  <si>
+    <t>495 Bua, Tuding, Itogon, Benguet, Tuding, Itogon, North Luzon, Benguet, 2604</t>
+  </si>
+  <si>
+    <t>Tuding</t>
+  </si>
+  <si>
+    <t>Itogon</t>
+  </si>
+  <si>
+    <t>Benguet</t>
+  </si>
+  <si>
+    <t>2604</t>
+  </si>
+  <si>
+    <t>2601179JJM8JH1</t>
+  </si>
+  <si>
+    <t>P1218GMUKJCAD</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:07</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:19</t>
+  </si>
+  <si>
+    <t>einr1qkhkv</t>
+  </si>
+  <si>
+    <t>Dampol I, Dampol I, Pulilan, North Luzon, Bulacan, 3005</t>
+  </si>
+  <si>
+    <t>Dampol I</t>
+  </si>
+  <si>
+    <t>Pulilan</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>2601179K3QQ02S</t>
+  </si>
+  <si>
+    <t>PH267655752245R</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:16</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:28</t>
+  </si>
+  <si>
+    <t>APCC4g</t>
+  </si>
+  <si>
+    <t>AshigoPlus Purple Corn Coffee Budget Pack 24s w/ Malunggay Mangosteen Guyabano Barleygrass Spirulina</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>gloriamadulara</t>
+  </si>
+  <si>
+    <t>G******A</t>
+  </si>
+  <si>
+    <t>******77</t>
+  </si>
+  <si>
+    <t>Kalayaan Compound, Zone 1, Santo Rosario, Santo Rosario, Iligan City, Mindanao, Lanao Del Norte, 9200</t>
+  </si>
+  <si>
+    <t>Santo Rosario</t>
+  </si>
+  <si>
+    <t>Iligan City</t>
+  </si>
+  <si>
+    <t>Lanao Del Norte</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>2601179KNQP4DC</t>
+  </si>
+  <si>
+    <t>PH268714997039M</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:26</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:37</t>
+  </si>
+  <si>
+    <t>geeshop_philippines</t>
+  </si>
+  <si>
+    <t>G******e</t>
+  </si>
+  <si>
+    <t>51 Cadig Street, Laloma, Quezon City, Salvacion, Quezon City, Metro Manila, Metro Manila, 1114</t>
+  </si>
+  <si>
+    <t>Salvacion</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>2601179KVCAVB5</t>
+  </si>
+  <si>
+    <t>PH260708384616Q</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:29</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:40</t>
+  </si>
+  <si>
+    <t>lncanlas</t>
+  </si>
+  <si>
+    <t>L******s</t>
+  </si>
+  <si>
+    <t>District 5, Block 55, Lot 47, Pandacaqui Resetlement., Pandacaqui, Mexico, North Luzon, Pampanga, 2021</t>
+  </si>
+  <si>
+    <t>2601179MN201T3</t>
+  </si>
+  <si>
+    <t>Standard Local</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:43</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:53</t>
+  </si>
+  <si>
+    <t>estephaniesierra</t>
+  </si>
+  <si>
+    <t>******91</t>
+  </si>
+  <si>
+    <t>Maharlika Street, Purok 7, San Pedro BLK 18 Lot1, San Pedro, San Jose Del Monte City, North Luzon, Bulacan, 3023</t>
+  </si>
+  <si>
+    <t>San Jose Del Monte City</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>2601179MP76D3C</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:44</t>
+  </si>
+  <si>
+    <t>2026-01-17 14:54</t>
+  </si>
+  <si>
+    <t>KHP</t>
+  </si>
+  <si>
+    <t>Kings Herbal Plus Food Supplement Fruits, Herbs and Vegetables Extracts 1000 mL Bottle Original</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>mdspiggeryfarm</t>
+  </si>
+  <si>
+    <t>******92</t>
+  </si>
+  <si>
+    <t>MDS Bldg. Santo Ninio Gapan City Nueva Ecija, Santo Nino, Gapan City, North Luzon, Nueva Ecija, 3105</t>
+  </si>
+  <si>
+    <t>Santo Nino</t>
+  </si>
+  <si>
+    <t>Gapan City</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melvin Delos Santos</t>
   </si>
   <si>
     <t>Booking SN</t>
@@ -2564,19 +3740,19 @@
         <v>73</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AM2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>78</v>
@@ -2743,19 +3919,19 @@
         <v>73</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>92</v>
@@ -2928,7 +4104,7 @@
         <v>73</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN4" s="4" t="s">
         <v>71</v>
@@ -3286,7 +4462,7 @@
         <v>73</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>71</v>
@@ -3644,7 +4820,7 @@
         <v>73</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN8" s="4" t="s">
         <v>71</v>
@@ -3823,7 +4999,7 @@
         <v>73</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN9" s="2" t="s">
         <v>71</v>
@@ -3996,7 +5172,7 @@
         <v>73</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>73</v>
@@ -4008,7 +5184,7 @@
         <v>209</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP10" s="4" t="s">
         <v>213</v>
@@ -4354,7 +5530,7 @@
         <v>73</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>73</v>
@@ -4366,7 +5542,7 @@
         <v>237</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP12" s="4" t="s">
         <v>239</v>
@@ -4533,7 +5709,7 @@
         <v>73</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL13" s="5" t="s">
         <v>73</v>
@@ -4545,7 +5721,7 @@
         <v>237</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP13" s="5" t="s">
         <v>239</v>
@@ -4697,7 +5873,7 @@
         <v>73</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>73</v>
@@ -4876,7 +6052,7 @@
         <v>73</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG15" s="5" t="s">
         <v>73</v>
@@ -5055,7 +6231,7 @@
         <v>73</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG16" s="5" t="s">
         <v>73</v>
@@ -5255,13 +6431,13 @@
         <v>73</v>
       </c>
       <c r="AM17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO17" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AP17" s="4" t="s">
         <v>274</v>
@@ -5428,19 +6604,19 @@
         <v>73</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="AL18" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP18" s="2" t="s">
         <v>289</v>
@@ -5607,7 +6783,7 @@
         <v>73</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>73</v>
@@ -5786,7 +6962,7 @@
         <v>73</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL20" s="2" t="s">
         <v>73</v>
@@ -5798,7 +6974,7 @@
         <v>317</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP20" s="2" t="s">
         <v>318</v>
@@ -5971,13 +7147,13 @@
         <v>73</v>
       </c>
       <c r="AM21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO21" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO21" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AP21" s="4" t="s">
         <v>332</v>
@@ -6502,19 +7678,19 @@
         <v>73</v>
       </c>
       <c r="AK24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM24" s="4" t="s">
+      <c r="AN24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO24" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AN24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO24" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AP24" s="4" t="s">
         <v>357</v>
@@ -6681,13 +7857,13 @@
         <v>73</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AL25" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN25" s="2" t="s">
         <v>71</v>
@@ -6866,7 +8042,7 @@
         <v>73</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN26" s="4" t="s">
         <v>71</v>
@@ -7039,19 +8215,19 @@
         <v>73</v>
       </c>
       <c r="AK27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AL27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM27" s="2" t="s">
+      <c r="AN27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="AN27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="AP27" s="2" t="s">
         <v>390</v>
@@ -7224,7 +8400,7 @@
         <v>73</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN28" s="4" t="s">
         <v>71</v>
@@ -7403,7 +8579,7 @@
         <v>73</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN29" s="2" t="s">
         <v>71</v>
@@ -7576,13 +8752,13 @@
         <v>73</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AL30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN30" s="4" t="s">
         <v>71</v>
@@ -7761,13 +8937,13 @@
         <v>73</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN31" s="2" t="s">
         <v>435</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP31" s="2" t="s">
         <v>436</v>
@@ -7934,19 +9110,19 @@
         <v>73</v>
       </c>
       <c r="AK32" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL32" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AM32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO32" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AN32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO32" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AP32" s="4" t="s">
         <v>450</v>
@@ -8113,7 +9289,7 @@
         <v>73</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AL33" s="2" t="s">
         <v>73</v>
@@ -8244,10 +9420,10 @@
         <v>474</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W34" s="4" t="s">
         <v>73</v>
@@ -8268,7 +9444,7 @@
         <v>73</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD34" s="4" t="s">
         <v>61</v>
@@ -8292,7 +9468,7 @@
         <v>73</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AL34" s="4" t="s">
         <v>73</v>
@@ -8423,10 +9599,10 @@
         <v>474</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>73</v>
@@ -8447,7 +9623,7 @@
         <v>73</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD35" s="5" t="s">
         <v>61</v>
@@ -8471,7 +9647,7 @@
         <v>73</v>
       </c>
       <c r="AK35" s="5" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AL35" s="5" t="s">
         <v>73</v>
@@ -8656,13 +9832,13 @@
         <v>73</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN36" s="2" t="s">
         <v>435</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP36" s="2" t="s">
         <v>496</v>
@@ -8835,7 +10011,7 @@
         <v>73</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN37" s="4" t="s">
         <v>71</v>
@@ -8984,7 +10160,7 @@
         <v>73</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>75</v>
@@ -9008,7 +10184,7 @@
         <v>73</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AL38" s="2" t="s">
         <v>73</v>
@@ -9545,7 +10721,7 @@
         <v>73</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AL41" s="2" t="s">
         <v>73</v>
@@ -9724,7 +10900,7 @@
         <v>73</v>
       </c>
       <c r="AK42" s="4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AL42" s="4" t="s">
         <v>73</v>
@@ -9909,7 +11085,7 @@
         <v>73</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN43" s="2" t="s">
         <v>71</v>
@@ -10082,19 +11258,19 @@
         <v>73</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL44" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AM44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO44" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AN44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO44" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AP44" s="4" t="s">
         <v>581</v>
@@ -10261,7 +11437,7 @@
         <v>73</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL45" s="2" t="s">
         <v>73</v>
@@ -10273,7 +11449,7 @@
         <v>592</v>
       </c>
       <c r="AO45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP45" s="2" t="s">
         <v>593</v>
@@ -10338,19 +11514,19 @@
         <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>62</v>
+        <v>601</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>66</v>
@@ -10359,19 +11535,19 @@
         <v>62</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>70</v>
+        <v>489</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>62</v>
@@ -10401,13 +11577,13 @@
         <v>73</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y46" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>73</v>
@@ -10440,49 +11616,49 @@
         <v>73</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AL46" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AM46" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN46" s="4" t="s">
         <v>71</v>
       </c>
       <c r="AO46" s="4" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="AP46" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>391</v>
+        <v>605</v>
       </c>
       <c r="AR46" s="4" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="AS46" s="4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AU46" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AV46" s="4" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="AW46" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AX46" s="4" t="s">
         <v>86</v>
       </c>
       <c r="AY46" s="4" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="AZ46" s="4" t="s">
         <v>62</v>
@@ -10511,25 +11687,25 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>613</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>66</v>
@@ -10538,19 +11714,19 @@
         <v>62</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>62</v>
@@ -10616,7 +11792,7 @@
         <v>71</v>
       </c>
       <c r="AJ47" s="2" t="s">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="AK47" s="2" t="s">
         <v>73</v>
@@ -10625,43 +11801,43 @@
         <v>73</v>
       </c>
       <c r="AM47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN47" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO47" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="AP47" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AQ47" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AS47" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AT47" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AU47" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AV47" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AX47" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AY47" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AZ47" s="2" t="s">
         <v>62</v>
@@ -10686,6 +11862,6450 @@
       </c>
       <c r="BG47" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP48" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AQ48" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AR48" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="AS48" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AT48" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU48" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AV48" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AW48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY48" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG48" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP49" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AR49" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AT49" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AU49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG49" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI50" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM50" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN50" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP50" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AQ50" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS50" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AT50" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AU50" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY50" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AZ50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG50" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP51" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="AR51" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="AS51" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="AT51" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="AU51" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="AV51" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AZ51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG51" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP52" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="AQ52" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="AR52" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS52" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="AT52" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="AU52" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="AV52" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AW52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY52" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="AZ52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG52" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ53" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AK53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AN53" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AO53" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP53" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR53" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AS53" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT53" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AU53" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV53" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AW53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY53" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AZ53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG53" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI54" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM54" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AN54" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AO54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP54" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AQ54" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR54" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="AS54" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="AT54" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="AU54" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="AV54" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY54" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AZ54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG54" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ55" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK55" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AL55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN55" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP55" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="AQ55" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AR55" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AS55" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="AT55" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AU55" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AV55" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AW55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY55" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="AZ55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG55" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM56" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP56" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="AQ56" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="AR56" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS56" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="AT56" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AU56" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AV56" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="AW56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY56" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="AZ56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG56" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AK57" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN57" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="AO57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP57" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS57" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="AT57" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="AU57" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="AV57" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="AW57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY57" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="AZ57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG57" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ58" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN58" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP58" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="AQ58" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AR58" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AS58" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AT58" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AU58" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="AV58" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX58" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY58" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AZ58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG58" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP59" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="AQ59" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="AR59" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="AS59" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="AT59" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="AU59" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY59" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="AZ59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP60" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AQ60" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="AR60" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AS60" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="AT60" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="AU60" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AV60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY60" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="AZ60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG60" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y61" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z61" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD61" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI61" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM61" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN61" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP61" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="AQ61" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="AR61" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AS61" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AT61" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="AU61" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="AV61" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY61" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="AZ61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI62" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AN62" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="AO62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP62" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="AQ62" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="AR62" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AS62" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AT62" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="AU62" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AV62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY62" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="AZ62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE62" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="BF62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG62" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC63" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI63" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="AJ63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK63" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN63" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="AO63" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP63" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="AQ63" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AR63" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="AS63" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="AT63" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="AU63" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AV63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY63" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="AZ63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG63" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ64" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AK64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP64" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AQ64" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR64" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AS64" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT64" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AU64" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AV64" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AW64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY64" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="AZ64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ65" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK65" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AL65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN65" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP65" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="AQ65" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="AR65" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="AS65" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="AT65" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="AU65" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AV65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY65" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="AZ65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG65" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI66" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="AJ66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN66" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="AO66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP66" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="AQ66" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="AR66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS66" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="AT66" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="AU66" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AV66" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY66" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="AZ66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE66" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="BF66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG66" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP67" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="AQ67" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR67" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS67" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="AT67" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AU67" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="AV67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY67" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="AZ67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG67" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM68" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AN68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP68" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="AQ68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS68" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="AT68" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="AU68" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="AV68" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="AW68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY68" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="AZ68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG68" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP69" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="AQ69" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="AR69" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="AS69" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="AT69" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="AU69" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="AV69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY69" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="AZ69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG69" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y70" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM70" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP70" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="AQ70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AR70" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AS70" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="AT70" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="AU70" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="AV70" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="AW70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY70" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="AZ70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG70" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP71" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="AQ71" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AR71" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AS71" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="AT71" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="AU71" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="AV71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX71" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY71" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG71" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI72" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="AJ72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN72" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="AO72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP72" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="AQ72" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="AR72" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="AS72" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="AT72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY72" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="AZ72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ73" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN73" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="AO73" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP73" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="AQ73" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="AR73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS73" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="AT73" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AU73" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="AV73" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="AW73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY73" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="AZ73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG73" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP74" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="AQ74" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR74" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="AS74" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="AT74" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="AU74" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="AV74" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY74" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="AZ74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG74" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ75" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AK75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN75" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP75" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="AQ75" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="AR75" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="AS75" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="AT75" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="AU75" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="AV75" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW75" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY75" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="AZ75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG75" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP76" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="AQ76" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR76" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="AS76" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="AT76" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="AU76" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="AV76" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AW76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY76" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="AZ76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG76" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI77" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ77" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN77" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO77" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP77" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="AQ77" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="AR77" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS77" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="AT77" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="AU77" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="AV77" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="AW77" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY77" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="AZ77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG77" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM78" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AN78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP78" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="AQ78" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR78" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS78" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="AT78" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="AU78" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="AV78" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY78" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="AZ78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG78" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="W79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X79" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z79" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI79" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJ79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM79" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="AN79" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="AO79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP79" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="AQ79" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="AR79" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="AS79" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="AT79" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="AU79" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="AV79" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="AW79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX79" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY79" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AZ79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG79" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP80" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="AQ80" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="AR80" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="AS80" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="AT80" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="AU80" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY80" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="AZ80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG80" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ81" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM81" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN81" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP81" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="AQ81" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="AR81" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS81" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="AT81" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="AU81" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AV81" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW81" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY81" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="AZ81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG81" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM82" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP82" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="AQ82" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AR82" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="AS82" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="AT82" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU82" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="AV82" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY82" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="AZ82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG82" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z83" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AA83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC83" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AD83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI83" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AJ83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM83" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AN83" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AO83" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP83" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ83" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR83" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AS83" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT83" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AU83" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AV83" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW83" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX83" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY83" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AZ83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC83" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD83" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE83" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BF83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG83" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -10710,7 +18330,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>619</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -10725,7 +18345,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>620</v>
+        <v>1012</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
